--- a/backend/excel/fujian.xlsx
+++ b/backend/excel/fujian.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd HH:mm:ss"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11.0"/>
@@ -82,24 +84,191 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
       <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>-3124200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>-12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="12700"/>
+          <a:ext cx="450850" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>-2082800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>-12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="12700"/>
+          <a:ext cx="450850" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>-1041400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>-12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2108200" y="12700"/>
+          <a:ext cx="450850" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3149600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>-12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3149600" y="12700"/>
+          <a:ext cx="450850" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.0" customWidth="true"/>
+    <col min="2" max="2" width="255.0" customWidth="true"/>
+    <col min="3" max="3" width="11.0" customWidth="true"/>
+    <col min="4" max="4" width="57.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="54.0" customWidth="true"/>
+    <col min="7" max="7" width="45.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -138,7 +307,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="true" ht="100.0">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1707416653095735754</t>
@@ -159,23 +328,14 @@
           <t>https://twitter.com/baojianella/status/873567782134136834</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Thu Sep 28 23:27:07 CST 2023</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>[TweetImage(id=709, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=710, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=711, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=712, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg)]</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="E2" s="3" t="n">
+        <v>45197.977164351854</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/excel/fujian.xlsx
+++ b/backend/excel/fujian.xlsx
@@ -166,7 +166,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>[TweetImage(id=709, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=710, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=711, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=712, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg)]</t>
+          <t>[TweetImage(id=709, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=710, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=711, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=712, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg), TweetImage(id=721, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=722, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=723, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=724, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg), TweetImage(id=873, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=874, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=875, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=876, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg), TweetImage(id=877, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=878, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=879, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=880, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg), TweetImage(id=895, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=896, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=897, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=898, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg)]</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">

--- a/backend/excel/fujian.xlsx
+++ b/backend/excel/fujian.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd HH:mm:ss"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11.0"/>
@@ -82,24 +84,191 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
       <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>-3124200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>-12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="12700"/>
+          <a:ext cx="850900" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>-2082800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>-12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="12700"/>
+          <a:ext cx="850900" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>-1041400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>-12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2108200" y="12700"/>
+          <a:ext cx="850900" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3149600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>-12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3149600" y="12700"/>
+          <a:ext cx="850900" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.0" customWidth="true"/>
+    <col min="2" max="2" width="255.0" customWidth="true"/>
+    <col min="3" max="3" width="13.0" customWidth="true"/>
+    <col min="4" max="4" width="60.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="60.0" customWidth="true"/>
+    <col min="7" max="7" width="45.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -138,44 +307,62 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="true" ht="100.0">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>1729138854307975516</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>@nuomt 三年前是走出去，现在是请进来😰😱</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>xxxxxxxxxxxxx</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/xxxxxxxxxxxxx/status/1729138854307975516</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>45257.919016203705</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customHeight="true" ht="100.0">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
           <t>1707416653095735754</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>RT @709wangqiaoling: 一个母亲的八年（一）从709开始，我常常自我介绍，我是709李和平律师的妻子，王峭岭。从今天起，我再做个自我介绍。我是李泽远和李佳美的妈妈，王峭岭。眼泪伴随着祷告，在无数个失眠的夜里，默默流在枕头上。2018那一年，真的是漫长…</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>baojianella</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>https://twitter.com/baojianella/status/873567782134136834</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Thu Sep 28 23:27:07 CST 2023</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>[TweetImage(id=709, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=710, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=711, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=712, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg), TweetImage(id=721, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=722, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=723, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=724, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg), TweetImage(id=873, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=874, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=875, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=876, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg), TweetImage(id=877, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=878, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=879, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=880, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg), TweetImage(id=895, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciixbIAAJjwB.jpg), TweetImage(id=896, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiubIAACAtU.jpg), TweetImage(id=897, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciivbgAAAVBa.jpg), TweetImage(id=898, tweetid=1707416653095735754, url=https://pbs.twimg.com/media/F7FciiwasAAkdH9.jpg)]</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>xxxxxxxxxxxxx</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/xxxxxxxxxxxxx/status/1707416653095735754</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>45197.977164351854</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/excel/fujian.xlsx
+++ b/backend/excel/fujian.xlsx
@@ -100,13 +100,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>-3124200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>-12700</xdr:rowOff>
@@ -138,13 +138,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>-2082800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>-12700</xdr:rowOff>
@@ -176,13 +176,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2108200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>-1041400</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>-12700</xdr:rowOff>
@@ -214,13 +214,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3149600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>-12700</xdr:rowOff>
@@ -255,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -263,11 +263,12 @@
   <cols>
     <col min="1" max="1" width="19.0" customWidth="true"/>
     <col min="2" max="2" width="255.0" customWidth="true"/>
-    <col min="3" max="3" width="13.0" customWidth="true"/>
-    <col min="4" max="4" width="60.0" customWidth="true"/>
-    <col min="5" max="5" width="20.0" customWidth="true"/>
-    <col min="6" max="6" width="60.0" customWidth="true"/>
-    <col min="7" max="7" width="45.0" customWidth="true"/>
+    <col min="3" max="3" width="11.0" customWidth="true"/>
+    <col min="4" max="4" width="58.0" customWidth="true"/>
+    <col min="5" max="5" width="24.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="60.0" customWidth="true"/>
+    <col min="8" max="8" width="45.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -293,15 +294,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>反馈原因</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>发布时间</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>图片</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>视频</t>
         </is>
@@ -320,19 +326,24 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>xxxxxxxxxxxxx</t>
+          <t>baojianella</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>https://twitter.com/xxxxxxxxxxxxx/status/1729138854307975516</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
+          <t>https://twitter.com/baojianella/status/1729138854307975516</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>触发关键词 [三年]</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>45257.919016203705</v>
       </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" customHeight="true" ht="100.0">
       <c r="A3" s="2" t="inlineStr">
@@ -347,19 +358,24 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>xxxxxxxxxxxxx</t>
+          <t>baojianella</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>https://twitter.com/xxxxxxxxxxxxx/status/1707416653095735754</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
+          <t>https://twitter.com/baojianella/status/1707416653095735754</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>触发关键词 [八年]</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>45197.977164351854</v>
       </c>
-      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/backend/excel/fujian.xlsx
+++ b/backend/excel/fujian.xlsx
@@ -105,10 +105,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0" customWidth="true"/>
-    <col min="2" max="2" width="60.0" customWidth="true"/>
-    <col min="3" max="3" width="11.0" customWidth="true"/>
-    <col min="4" max="4" width="58.0" customWidth="true"/>
-    <col min="5" max="5" width="21.0" customWidth="true"/>
+    <col min="2" max="2" width="21.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="62.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
     <col min="6" max="6" width="20.0" customWidth="true"/>
     <col min="7" max="7" width="60.0" customWidth="true"/>
     <col min="8" max="8" width="45.0" customWidth="true"/>
@@ -159,31 +159,31 @@
     <row r="2" customHeight="true" ht="100.0">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>1712284394512412826</t>
+          <t>1775081198358007902</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>@parrotmomo @meimei1935 我只听出老婆婆是苏北人。</t>
+          <t>明天去北京上访</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>baojianella</t>
+          <t>HelenAdams59518</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>https://twitter.com/baojianella/status/1712284394512412826</t>
+          <t>https://twitter.com/HelenAdams59518/status/1775081198358007902</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>触发关键词 [是]</t>
+          <t>AI分析返回</t>
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>45211.40957175926</v>
+        <v>45384.69572916667</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
